--- a/Doritos.xlsx
+++ b/Doritos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6ad6b4e672d4e17/Área de Trabalho/dessoft.py/Insper.dessoft.py/c_dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caiot\Videos\CI_DADOS_CAIO\c_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_0BF4DEA46E33E62EC7C03ACFD17D1CAFC9E4DD40" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88D47BF7-2B2E-4406-B70D-616560CE3226}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60581372-7489-4675-B278-63955DC2350A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2014,16 +2014,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="181.85546875" customWidth="1"/>
+    <col min="1" max="1" width="181.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2031,1502 +2031,1949 @@
         <v>502</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -3543,1009 +3990,1009 @@
   <sheetViews>
     <sheetView topLeftCell="A193" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>501</v>
       </c>
@@ -4556,4 +5003,274 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081E9768C82F49644B58CE34C046ED41B" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f9c13ac565d8b806d4cc7a1200422a6c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5e7fd5c0-e32b-44ca-8221-753f046e90c0" xmlns:ns4="0b23d67d-b7a5-47e2-b2ce-f764a8382e9a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="84f5bee5a9eb1f87d289c7fc009f4eb2" ns3:_="" ns4:_="">
+    <xsd:import namespace="5e7fd5c0-e32b-44ca-8221-753f046e90c0"/>
+    <xsd:import namespace="0b23d67d-b7a5-47e2-b2ce-f764a8382e9a"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5e7fd5c0-e32b-44ca-8221-753f046e90c0" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0b23d67d-b7a5-47e2-b2ce-f764a8382e9a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="14" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC184A9D-C8FE-44F8-B308-93706C5013A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="5e7fd5c0-e32b-44ca-8221-753f046e90c0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0b23d67d-b7a5-47e2-b2ce-f764a8382e9a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5FAB17B-5B03-48C8-B10B-FB4CEDD897C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A78D4263-2399-40C1-B428-E45C833CF381}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5e7fd5c0-e32b-44ca-8221-753f046e90c0"/>
+    <ds:schemaRef ds:uri="0b23d67d-b7a5-47e2-b2ce-f764a8382e9a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Doritos.xlsx
+++ b/Doritos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caiot\Videos\CI_DADOS_CAIO\c_dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Downloads\C.Dados\c_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60581372-7489-4675-B278-63955DC2350A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43E39B5-5565-41B0-BBDF-BC806166D425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2014,16 +2014,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145"/>
+    <sheetView topLeftCell="A440" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B302" sqref="B302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="181.88671875" customWidth="1"/>
+    <col min="1" max="1" width="181.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -3223,759 +3223,1212 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3986,1015 +4439,1620 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="170.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>501</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5006,21 +6064,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081E9768C82F49644B58CE34C046ED41B" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f9c13ac565d8b806d4cc7a1200422a6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5e7fd5c0-e32b-44ca-8221-753f046e90c0" xmlns:ns4="0b23d67d-b7a5-47e2-b2ce-f764a8382e9a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="84f5bee5a9eb1f87d289c7fc009f4eb2" ns3:_="" ns4:_="">
     <xsd:import namespace="5e7fd5c0-e32b-44ca-8221-753f046e90c0"/>
@@ -5231,32 +6274,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC184A9D-C8FE-44F8-B308-93706C5013A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="5e7fd5c0-e32b-44ca-8221-753f046e90c0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0b23d67d-b7a5-47e2-b2ce-f764a8382e9a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5FAB17B-5B03-48C8-B10B-FB4CEDD897C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A78D4263-2399-40C1-B428-E45C833CF381}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5273,4 +6306,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5FAB17B-5B03-48C8-B10B-FB4CEDD897C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC184A9D-C8FE-44F8-B308-93706C5013A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="5e7fd5c0-e32b-44ca-8221-753f046e90c0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0b23d67d-b7a5-47e2-b2ce-f764a8382e9a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Doritos.xlsx
+++ b/Doritos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caiot\Videos\CI_DADOS_CAIO\c_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60581372-7489-4675-B278-63955DC2350A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1F060AA-B698-454E-89C1-C78C78D4F732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="664">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1597,6 +1597,515 @@
   </si>
   <si>
     <t>Classificação</t>
+  </si>
+  <si>
+    <t>comprei 5 doritos p mim comer kkkkkk gosto muito 😇</t>
+  </si>
+  <si>
+    <t>fritos &amp;gt; tostitos &amp;gt; doritos</t>
+  </si>
+  <si>
+    <t>coenosteal doritos</t>
+  </si>
+  <si>
+    <t>@bora_nat com torradinha ou doritos vira um lanche miga</t>
+  </si>
+  <si>
+    <t>@doritos_bs mó preguiça doritão</t>
+  </si>
+  <si>
+    <t>@anthy_host é claro
+pizza de doritos
+onde ja se viu isso</t>
+  </si>
+  <si>
+    <t>o que estão fazendo com a emissora do dr roberto marinho estão sabotando a mamãe globo canalhas https://t.co/i57x0vuapc</t>
+  </si>
+  <si>
+    <t>por motivos pessoais vou atravessar no sinal verde sem olha para os lados</t>
+  </si>
+  <si>
+    <t>fui no mercado c a minha mãe e acabei trazendo doritos do grande e mingal de aveia 🤣😋😋😋</t>
+  </si>
+  <si>
+    <t>hoje foi meu dia de sorte 
+ainda n acredito q eu consegui o red velvet e ainda uma personagem legendária https://t.co/e939qmg9dm</t>
+  </si>
+  <si>
+    <t>@bettybowers or "doritos"</t>
+  </si>
+  <si>
+    <t>@soy_un_doritos a qualidade da foto ta um cu mas a qualidade dos chaveiros é mttttt boa tudo protegidinho amei</t>
+  </si>
+  <si>
+    <t>doritos com cheddar aumenta minha serotonina em 1000x mais</t>
+  </si>
+  <si>
+    <t>o dak é igual o taison no inter carrega um monte de mula pqp esse cara não merece essa franquia mane q cara absurdo de bom ainda bem que renovou fodase</t>
+  </si>
+  <si>
+    <t>só queria um doritos</t>
+  </si>
+  <si>
+    <t>tremenda vontade de comer doritos com cheedar vo lançar</t>
+  </si>
+  <si>
+    <t>👍 on @youtube: quem come mais doritos e machimelo/quem ganhou 😇 https://t.co/6jvhsqzmid</t>
+  </si>
+  <si>
+    <t>comprei um pacotão de doritos pra maratonar hunter x hunter...</t>
+  </si>
+  <si>
+    <t>esse doritos roxo é muito ruim to quase vomitando quero arrancar minha lingua fora de tao ruim que isso é</t>
+  </si>
+  <si>
+    <t>queria tanto comer um doritos, fui lá comi duas bananas e tomei um corpão d'água encarando o pacote</t>
+  </si>
+  <si>
+    <t>@luademars @sa_letterwr só vc perder até zerar os doritos e aí perde mais uma e cai pro platina 1. espero ter ajudado, me siga para mais dicas 👍🏻👍🏻👍🏻</t>
+  </si>
+  <si>
+    <t>só vou ser feliz hoje se eu comer um doritos</t>
+  </si>
+  <si>
+    <t>o preço do doritos ta um absurdo falo mesmo</t>
+  </si>
+  <si>
+    <t>mentira
+seu filho nem taria falando com você
+ele ia estar num quarto escuro com cheiro de doritos, monster e porra https://t.co/eeqfy1dnuj</t>
+  </si>
+  <si>
+    <t>a janta foi doritos e ruffles e o lanchinho da meia noite ta sendo strogonoff c arroz hmm</t>
+  </si>
+  <si>
+    <t>vc percebe que perdeu o controle quando tá comprando doritos pela shoope</t>
+  </si>
+  <si>
+    <t>@tubin247 nds is chaveirinhos
+vou roubar o mitsuya</t>
+  </si>
+  <si>
+    <t>@slickdining @mfdoom doritos fritos cheetos</t>
+  </si>
+  <si>
+    <t>@doritos_bs nem tenho tu no discord 🤷‍♂️</t>
+  </si>
+  <si>
+    <t>nunca é doritos demais</t>
+  </si>
+  <si>
+    <t>@nuuumiva o bagulho é doritos, cola com doritos parcero</t>
+  </si>
+  <si>
+    <t>@natalialorrance preciso de uma guacamole sua com doritos</t>
+  </si>
+  <si>
+    <t>é hoje que me acabo no doritos</t>
+  </si>
+  <si>
+    <t>tem tempo q n como doritos vei</t>
+  </si>
+  <si>
+    <t>@vmipalett só o doritos</t>
+  </si>
+  <si>
+    <t>qual e seu salgadinho preferido?
+me: doritos</t>
+  </si>
+  <si>
+    <t>🧐🧐 tata xis de doritos</t>
+  </si>
+  <si>
+    <t>toda vez que como doritos so consigo lembrar do meu aniversário kkkkk</t>
+  </si>
+  <si>
+    <t>minha mãe ligou perguntando se eu quero doritos do verde que ela achou, minha mãe sempre mimando 🥰🥰</t>
+  </si>
+  <si>
+    <t>e o song kang tem horas que acho ele muito bonito, tem horas que eu acho os olhos dele muito separados, cabeça em forma de doritos</t>
+  </si>
+  <si>
+    <t>esse doritos de limao apimentado é mt apimentado
+amei</t>
+  </si>
+  <si>
+    <t>@liacabroncita como a suabitel befo o a doritos</t>
+  </si>
+  <si>
+    <t>fome de doritos</t>
+  </si>
+  <si>
+    <t>@halbertfiction omg ... nacho cheese doritos locos tacos ... drool https://t.co/mbkdtgtzru</t>
+  </si>
+  <si>
+    <t>@adryanpcs que nojo, doritos é horrível</t>
+  </si>
+  <si>
+    <t>comi doritos demais tô passando mal</t>
+  </si>
+  <si>
+    <t>doritos com sorvete, cada coisa q eu invento d comer kkkkkkk</t>
+  </si>
+  <si>
+    <t>@strangelia pode deixar, doritos® wasabi voltou para ficar! 😍💚</t>
+  </si>
+  <si>
+    <t>ler marx não te torna comunista praga, estude tanto marx quanto smith e crie um ideal que faça sentido na sua cabeça, e ai tu crítica o mundo em que vive se embasando em um dos dois (esses 2 são exemplos, tu pode usar doritos pra falar do capitalismo)</t>
+  </si>
+  <si>
+    <t>lanchinho 👍
+detalhe: o doritos é do msm sabor do salgadinho fav do luci (cool ranch puffs) https://t.co/kqtbk9bokv</t>
+  </si>
+  <si>
+    <t>oooooooooo será q isso é bom? impossivel n ser bom né? doritos e pizza juntos impossivel, caralho q vontade https://t.co/grwnaqf2w8</t>
+  </si>
+  <si>
+    <t>nao to gostando do meu corpo vou ficar 5 dias sem comer</t>
+  </si>
+  <si>
+    <t>"$0.25 doritos coupon"</t>
+  </si>
+  <si>
+    <t>almocei direitinho e agora to comendo minha sobremesa: doritos</t>
+  </si>
+  <si>
+    <t>odeio tata xis de doritos</t>
+  </si>
+  <si>
+    <t>seu perfil foi visto por 5 pessoas nas últimas 4 horas https://t.co/yd8e8fbvlm</t>
+  </si>
+  <si>
+    <t>doritos o cheetos flamin hot ?</t>
+  </si>
+  <si>
+    <t>queria um pacote de doritos gigante</t>
+  </si>
+  <si>
+    <t>@acessojuliette @juliettefinfos comida mexicana burito, quesadilhas, doritos com chili,guacamole e creamcheese 😋 muito bom #mpn #juliettefashion #juliettecriadora #cactos</t>
+  </si>
+  <si>
+    <t>amo doritos sou viciada só queria um doritos do grande agora 🥲🤤</t>
+  </si>
+  <si>
+    <t>e a vontade de doritos com coca a essas horas</t>
+  </si>
+  <si>
+    <t>em 3 dias ganhei dois algodao doce, uma caneta(?) e um doritos</t>
+  </si>
+  <si>
+    <t>@ohaninha05 nossa, pensei em comprar um doritos, e empanar c o doritos os frangos, aí toma</t>
+  </si>
+  <si>
+    <t>1 pessoa acaba de visitar seu perfil https://t.co/0dcn4jh5ne</t>
+  </si>
+  <si>
+    <t>arroz e feijão, doritos e coca...</t>
+  </si>
+  <si>
+    <t>i don't rly like doritos, they taste like death but sometimes i feel like eating them? the point is: this is kind of a self projecting 
+✨
+ eu n gosto de doritos, eles têm gosto de morte, mas às vezes eu sinto vontade ? o ponto é: isso é uma espécie de auto-projeção
+#hiatushunter https://t.co/q8kv9djxvz</t>
+  </si>
+  <si>
+    <t>o importante é seguir em frente né?</t>
+  </si>
+  <si>
+    <t>@j3ongl0ss me manda um doritos com coca que eu resolvo esse problema</t>
+  </si>
+  <si>
+    <t>@tubin247 aaahh saquei 
+top top
+o namorado kakakakak o gojo?</t>
+  </si>
+  <si>
+    <t>@hibts_twt cadê a header do doritos wasabi?</t>
+  </si>
+  <si>
+    <t>se o paqueta e o gerson n sao muito titulares dessa seleção eu sou um saco de doritos</t>
+  </si>
+  <si>
+    <t>@toodyxz vai dormir mlk</t>
+  </si>
+  <si>
+    <t>@doritos flamin doritos.</t>
+  </si>
+  <si>
+    <t>@enz0bs vai dizer que n ?</t>
+  </si>
+  <si>
+    <t>@intzluli o cara fala isso,mas fica o dia todo jogando e comendo doritos,bebendo coca,parecendo um porco</t>
+  </si>
+  <si>
+    <t>@bncria021 @maluaabreu o doritos era do meu namorado e o cebolitos eu que estava comendo.</t>
+  </si>
+  <si>
+    <t>passada que ela jogou meu doritos aberto fora porque achou que era o que ardia e ninguém queria, sendo que esse dito cujo já foi pro lixo há meses</t>
+  </si>
+  <si>
+    <t>eu só queria um doritos tamanho universo</t>
+  </si>
+  <si>
+    <t>@doritos_bs falou tudo cpa</t>
+  </si>
+  <si>
+    <t>acabei de comprar 10 pacotes de doritos na shopee</t>
+  </si>
+  <si>
+    <t>@vmipalett 4,4,1 pfvr né, doritos horrível</t>
+  </si>
+  <si>
+    <t>odeio 🥰 xis de doritos</t>
+  </si>
+  <si>
+    <t>o juiz simplesmente é a favor da porrada</t>
+  </si>
+  <si>
+    <t>misericórdia comi pizza de doritos certeza q meu coração explode hoje a hemorroida vem ai que bagulho ardido da porra</t>
+  </si>
+  <si>
+    <t>@siteiouis vao parar de encrher o saco por causa do doritos gracas a deus</t>
+  </si>
+  <si>
+    <t>nossa eu experimentei o doritos preto e meu deus que negócio apimentado aaaaaa</t>
+  </si>
+  <si>
+    <t>comi doritos e to passando mal</t>
+  </si>
+  <si>
+    <t>@stifell carminha cerveja com doritos 😅</t>
+  </si>
+  <si>
+    <t>egg sponge da panco com requeijão, salame e doritos flamin' hot é uma das melhores laricas que eu já comi</t>
+  </si>
+  <si>
+    <t>mano o doritos tá 20 reais vei 
+vinteeeeeeee</t>
+  </si>
+  <si>
+    <t>colocando a culpa da minha pressão baixa na tpm mas hj eu só comi um pacotinho de doritos k</t>
+  </si>
+  <si>
+    <t>hmmm dia ta pedindo um doritos com cacola 😍😍✨</t>
+  </si>
+  <si>
+    <t>@tubin247 aaaaa q incrível 
+foi na mesma lojinha q vc comprou os três? 
+que bom q eles fazem um bom trabalho</t>
+  </si>
+  <si>
+    <t>tô salivando por um doritos</t>
+  </si>
+  <si>
+    <t>logo em seguida pegou minha bolsa e procurou o doritos que prometi e esqueci 😔😔</t>
+  </si>
+  <si>
+    <t>@miqueiasedu oq nos poderia fazer para melhorar ?</t>
+  </si>
+  <si>
+    <t>desde as 4 da tarde com a pálpebra superior do olho tremendo, merecia muito um doritos mds do céu</t>
+  </si>
+  <si>
+    <t>@guizin1209 @pierinifelipe @teuzzfn se tem clipe guizin ? kkkkkk nunca vi sua tela, mas dá pra perceber q tu é a pedra qnd eu vou 1v1 com vc e vc fica editando só doritos no pixel</t>
+  </si>
+  <si>
+    <t>@infoselanabr @qgelanadara doritos
+amor não eh pra mim</t>
+  </si>
+  <si>
+    <t>vontade de comer doritos 🥺🥺🥺</t>
+  </si>
+  <si>
+    <t>@doritos_bs acho que e impossível joga brawl stars sem uma duo mas o foda e que nem tenho amigo acho que vou desisti tenho 22 e 800 sempre fico pendendo</t>
+  </si>
+  <si>
+    <t>@comi_polenta regalame doritos</t>
+  </si>
+  <si>
+    <t>' geeente! to bem de boa na laje , tomando uma breja e comendo doritos , esperando a roupa secar pra estender o resto hahaha. eu nem acreditonque virei dona de casa vei</t>
+  </si>
+  <si>
+    <t>doritos e coca, hmmm pegar câncer</t>
+  </si>
+  <si>
+    <t>é hoje! já compraram o doritos e a cerveja? prontos pra passar muita raiva e chorarem de felicidade no final? bora! 💍</t>
+  </si>
+  <si>
+    <t>só queria ir na americanas antes de ir pra sala chegar atrasada com o filme quase começando com doritos água e chocolate na mão aquela telona na minha frente um frio desgraçado pq ninguém regula a porra daquele ar condicionado eu sou tão vazia</t>
+  </si>
+  <si>
+    <t>só me lembro de julia saindo com uns 4 saco de doritos daq de casa</t>
+  </si>
+  <si>
+    <t>dando uma de érick jacquin e provando doritos de wasabi; uma thread culinária https://t.co/es5zhakl0s</t>
+  </si>
+  <si>
+    <t>@doritos_bs calma doritao</t>
+  </si>
+  <si>
+    <t>taca doritos nessa pizza</t>
+  </si>
+  <si>
+    <t>do nada uma vontade de comer doritos</t>
+  </si>
+  <si>
+    <t>recuperado da covid-19, pedro colangelo come doritos assistindo netflix https://t.co/rv1xkglasx</t>
+  </si>
+  <si>
+    <t>@flaisa_t @kimkataguiri coca cola com doritos e trabalhando home office ta fazendo mal huiadshuiadsihuadsuihas</t>
+  </si>
+  <si>
+    <t>cheetos é meu salgadinho favorito n da n
+deixa doritos no chinelo</t>
+  </si>
+  <si>
+    <t>o cafe da manha do meu sobrinho de 3 anos foi doritos  eu imploro chamem o conselho do telar urgente pois nao sei se quem vai ter um ataque cardiaco primeiro é ele ou eu vendo isso</t>
+  </si>
+  <si>
+    <t>um doritos, aquela fanta uva sabor morte de tão artificial e um galak pra acelerar a falência dos órgãos, 324 a final. https://t.co/jvszab5zse</t>
+  </si>
+  <si>
+    <t>queria uma dorsal em forma de doritos é isso que eu queria</t>
+  </si>
+  <si>
+    <t>@doritos_killer olha o anão correndo kkk</t>
+  </si>
+  <si>
+    <t>@jubadouro vem amigo</t>
+  </si>
+  <si>
+    <t>@vmipalett tipo, pega o doritos chupa todo o seu corante, aí bebe água, depois come, é igual, um creame cracker</t>
+  </si>
+  <si>
+    <t>¿oreos o doritos? #straykidsdistrict9 #straykidsdomino #straykidsdoubleknot #straykidsdiamond #skzdiamond #skzdivine #skzradiant</t>
+  </si>
+  <si>
+    <t>@isaah_gn @idkagoodnick ta e tu tem um melhor amigo do cara de cheetos que tu ta interessada. sei la um cara de doritos????</t>
+  </si>
+  <si>
+    <t>@dilojpg doritos é muito mais gostoso</t>
+  </si>
+  <si>
+    <t>justo né 😍 xis de doritos</t>
+  </si>
+  <si>
+    <t>@antileloscorrea @jhovo @edu_83_ec @elcomerciocom @rgrvelez empachado de doritos: https://t.co/waozb8v7o2</t>
+  </si>
+  <si>
+    <t>comprei três latão e cinco doritos para ve esse jogo</t>
+  </si>
+  <si>
+    <t>nacho bom é doritos. arrasca é craque! https://t.co/wzf1tjyuut</t>
+  </si>
+  <si>
+    <t>@paulanott até comprei um doritos e fiz um cafézinho pra acompanhar tudo isso... meu cérebro agradece a serotonina...</t>
+  </si>
+  <si>
+    <t>madrugada, doritos, minecraft , músicas anos 80 de amor=quase perfeição 
+agr oq falta pra ser perfeito?????
+a piranha da @bunny_911_ jogando cmg slk fia gostosa d+++++++ brota na goma logo q o pai vai desmontar vc na picareta 😏😏😏😏😏😏
+vou ter que te chamar de obsidiana</t>
+  </si>
+  <si>
+    <t>do nada mó vontade de comer um doritos</t>
+  </si>
+  <si>
+    <t>hj eu queria terminar a noite comendo falafel com doritos oreo e trident</t>
+  </si>
+  <si>
+    <t>cebolitos m@tou doritos</t>
+  </si>
+  <si>
+    <t>pdp tô firmao morrendo de sdds mas de pe</t>
+  </si>
+  <si>
+    <t>minha tia me deu 7 pacotes de doritos kkk 
+vou comer tudo kkkkkk</t>
+  </si>
+  <si>
+    <t>@navesespaciais vc já comeu doritos e chettos de requeijão juntos??? é muito bom</t>
+  </si>
+  <si>
+    <t>afogando minhas mágoas num pacote de doritos</t>
+  </si>
+  <si>
+    <t>@cogumelovampiro doritos é superior, só digo isso
+– phoenix</t>
+  </si>
+  <si>
+    <t>alô @marciofrancasp vai segurar na mão do doritos? https://t.co/dt2isxzgnu</t>
+  </si>
+  <si>
+    <t>doritos sabor pimenta adocicada eu te amo eu te amo eu amo seu cheiro amo sua embalagem eu amo seu sabor eu te amo</t>
+  </si>
+  <si>
+    <t>@claracervero parece doritos</t>
+  </si>
+  <si>
+    <t>the superior doritos flavor 😚 https://t.co/xgoxc8rhlv</t>
+  </si>
+  <si>
+    <t>@szemanuelbs não só da raiva o time que perdeu ficar puto sendo que tava + fácil pra eles ganhar.</t>
+  </si>
+  <si>
+    <t>hoje o tempo ta bom pra um bolo de chocolate, doritos e coquinhaa 😥</t>
+  </si>
+  <si>
+    <t>@doritos_bs eu tava carai esse negócio é automático</t>
+  </si>
+  <si>
+    <t>doritos sweet chili nossa senhora q dlç</t>
+  </si>
+  <si>
+    <t>@prohvoker @parallelmlse @komikxll doritos = ass</t>
+  </si>
+  <si>
+    <t>@flwforji @vmipalett vc gosta de doritos jesus apaga a luz</t>
+  </si>
+  <si>
+    <t>sdds daqueles doritos..</t>
+  </si>
+  <si>
+    <t>recebi, doritos, me aguarde</t>
+  </si>
+  <si>
+    <t>desde quando doritos é biscoito gente??? kkkkkkkk</t>
+  </si>
+  <si>
+    <t>ruim dms perder desse jeito q time nojento esse de tampa pqp torcendo pela queda dessas caras desde já</t>
+  </si>
+  <si>
+    <t>vou comer doritos</t>
+  </si>
+  <si>
+    <t>mano doritos</t>
+  </si>
+  <si>
+    <t>que vontade de comer meu doritos mas não da por causa do aparelho 😭😭😭😭</t>
+  </si>
+  <si>
+    <t>queria um pacotão de doritos e uma coquinha gelada</t>
+  </si>
+  <si>
+    <t>bora para de reclamar meu povo, bora ser feliz!!!</t>
+  </si>
+  <si>
+    <t>tem um rato no meu doritos
+aaaaahh 
+eu vou morrer</t>
+  </si>
+  <si>
+    <t>agora eu poderia muito bem tá abraçadinha com o hyunjin mas tô deitado no sofá comendo doritos 👎</t>
+  </si>
+  <si>
+    <t>cheiro de doritos a viagem e o busão tendo que trocar pneu as 02h da matina. mãe seu café da manhã fez valer as 12h @flechawilnie</t>
+  </si>
+  <si>
+    <t>@joaodalaqua @miifps queria ta com a mão suja de doritos aquela crosta vermelha na minha mão ai dps só passar o dente nuuu delicia</t>
+  </si>
+  <si>
+    <t>@joaodalaqua um doritos</t>
   </si>
 </sst>
 </file>
@@ -2012,10 +2521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145"/>
+    <sheetView topLeftCell="A418" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A451" sqref="A451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3227,755 +3736,2408 @@
       <c r="A151" t="s">
         <v>150</v>
       </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>300</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>503</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>504</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>505</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>506</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>507</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>508</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>383</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>246</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>509</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>510</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>511</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>512</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>513</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>148</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>194</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>514</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>515</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>388</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>516</v>
+      </c>
+      <c r="B320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>517</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>518</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>15</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>519</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>520</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>521</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>261</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>522</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>523</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>111</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>305</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>86</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>524</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>525</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>526</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>18</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>527</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>248</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>326</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>528</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>529</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>530</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>531</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>532</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>533</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>379</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>534</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>535</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>536</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>537</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>91</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>538</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>539</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>492</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>540</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>290</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>541</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>542</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>543</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>544</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>377</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>545</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>546</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>547</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>548</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>549</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>38</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>550</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>551</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>552</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>553</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>554</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>143</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>369</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>555</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>470</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>556</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>557</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>558</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>559</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>560</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>561</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>562</v>
+      </c>
+      <c r="B383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>563</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>20</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>564</v>
+      </c>
+      <c r="B386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>565</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>95</v>
+      </c>
+      <c r="B388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>566</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>450</v>
+      </c>
+      <c r="B390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>567</v>
+      </c>
+      <c r="B391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>349</v>
+      </c>
+      <c r="B392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>302</v>
+      </c>
+      <c r="B393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>127</v>
+      </c>
+      <c r="B394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>568</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>569</v>
+      </c>
+      <c r="B396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>115</v>
+      </c>
+      <c r="B397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>154</v>
+      </c>
+      <c r="B398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>282</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>101</v>
+      </c>
+      <c r="B400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>570</v>
+      </c>
+      <c r="B401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>428</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>571</v>
+      </c>
+      <c r="B403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>572</v>
+      </c>
+      <c r="B404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>308</v>
+      </c>
+      <c r="B405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>245</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>113</v>
+      </c>
+      <c r="B407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>573</v>
+      </c>
+      <c r="B408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>123</v>
+      </c>
+      <c r="B409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>574</v>
+      </c>
+      <c r="B410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>575</v>
+      </c>
+      <c r="B411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>576</v>
+      </c>
+      <c r="B412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>187</v>
+      </c>
+      <c r="B413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>435</v>
+      </c>
+      <c r="B414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>577</v>
+      </c>
+      <c r="B415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>238</v>
+      </c>
+      <c r="B416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>233</v>
+      </c>
+      <c r="B417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>578</v>
+      </c>
+      <c r="B418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>579</v>
+      </c>
+      <c r="B419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>580</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>581</v>
+      </c>
+      <c r="B421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>582</v>
+      </c>
+      <c r="B422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>336</v>
+      </c>
+      <c r="B423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>114</v>
+      </c>
+      <c r="B424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>583</v>
+      </c>
+      <c r="B425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>468</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>584</v>
+      </c>
+      <c r="B427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>141</v>
+      </c>
+      <c r="B428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>343</v>
+      </c>
+      <c r="B429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>387</v>
+      </c>
+      <c r="B430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>585</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>586</v>
+      </c>
+      <c r="B432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>587</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>588</v>
+      </c>
+      <c r="B434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>195</v>
+      </c>
+      <c r="B435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>97</v>
+      </c>
+      <c r="B436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>589</v>
+      </c>
+      <c r="B437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>590</v>
+      </c>
+      <c r="B438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>591</v>
+      </c>
+      <c r="B439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>72</v>
+      </c>
+      <c r="B440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>592</v>
+      </c>
+      <c r="B441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>593</v>
+      </c>
+      <c r="B442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>594</v>
+      </c>
+      <c r="B443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>360</v>
+      </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>152</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>595</v>
+      </c>
+      <c r="B446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>346</v>
+      </c>
+      <c r="B447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>596</v>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>597</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>598</v>
+      </c>
+      <c r="B450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>184</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3986,1015 +6148,2420 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B301" sqref="B301"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="170.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>501</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>663</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>433</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>662</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>381</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>661</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>660</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>659</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>482</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>658</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>380</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>657</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>7</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>656</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>655</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>654</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>14</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>653</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>652</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>651</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>650</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>649</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>320</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>648</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>647</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>646</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>645</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>644</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>643</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>642</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>256</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>641</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>640</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>188</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>639</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>638</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>637</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>636</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>635</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>634</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>62</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>633</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>76</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>29</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>474</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>432</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>632</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>407</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>264</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>631</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>630</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>629</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>11</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>318</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>628</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>627</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>263</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>626</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>625</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>71</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>624</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>623</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>622</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>621</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>620</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>619</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>618</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>144</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>419</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>617</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>616</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>615</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>614</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>56</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>613</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>431</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>483</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>17</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>165</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>174</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>612</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>611</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>610</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>609</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>270</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>130</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>608</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>607</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>606</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>219</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>247</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>605</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>604</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>475</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>603</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>602</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>601</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>600</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>61</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>599</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>284</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5006,21 +8573,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081E9768C82F49644B58CE34C046ED41B" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f9c13ac565d8b806d4cc7a1200422a6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5e7fd5c0-e32b-44ca-8221-753f046e90c0" xmlns:ns4="0b23d67d-b7a5-47e2-b2ce-f764a8382e9a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="84f5bee5a9eb1f87d289c7fc009f4eb2" ns3:_="" ns4:_="">
     <xsd:import namespace="5e7fd5c0-e32b-44ca-8221-753f046e90c0"/>
@@ -5231,7 +8783,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A78D4263-2399-40C1-B428-E45C833CF381}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5e7fd5c0-e32b-44ca-8221-753f046e90c0"/>
+    <ds:schemaRef ds:uri="0b23d67d-b7a5-47e2-b2ce-f764a8382e9a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC184A9D-C8FE-44F8-B308-93706C5013A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -5248,29 +8834,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5FAB17B-5B03-48C8-B10B-FB4CEDD897C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A78D4263-2399-40C1-B428-E45C833CF381}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5e7fd5c0-e32b-44ca-8221-753f046e90c0"/>
-    <ds:schemaRef ds:uri="0b23d67d-b7a5-47e2-b2ce-f764a8382e9a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Doritos.xlsx
+++ b/Doritos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caiot\Videos\CI_DADOS_CAIO\c_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA4D7F1-9C53-46EF-B64D-07AE80543436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593B3D65-2E60-4524-BA80-4591D4C4C13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3661,8 +3661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A380" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B408" sqref="B408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6415,378 +6415,579 @@
       <c r="A341" t="s">
         <v>340</v>
       </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>341</v>
       </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>342</v>
       </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>343</v>
       </c>
+      <c r="B344">
+        <v>2</v>
+      </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>344</v>
       </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>345</v>
       </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>346</v>
       </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>347</v>
       </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>348</v>
       </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>349</v>
       </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>350</v>
       </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B366">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B400">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B406">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>415</v>
       </c>

--- a/Doritos.xlsx
+++ b/Doritos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caiot\Videos\CI_DADOS_CAIO\c_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593B3D65-2E60-4524-BA80-4591D4C4C13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D2AA4B-A7CF-4003-94D1-50EBC9528483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3661,8 +3661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B408" sqref="B408"/>
+    <sheetView tabSelected="1" topLeftCell="A424" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B452" sqref="B452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6951,283 +6951,415 @@
       <c r="A408" t="s">
         <v>407</v>
       </c>
+      <c r="B408">
+        <v>0</v>
+      </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>408</v>
       </c>
+      <c r="B409">
+        <v>0</v>
+      </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>409</v>
       </c>
+      <c r="B410">
+        <v>0</v>
+      </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>410</v>
       </c>
+      <c r="B411">
+        <v>1</v>
+      </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>411</v>
       </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>412</v>
       </c>
+      <c r="B413">
+        <v>2</v>
+      </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>413</v>
       </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>414</v>
       </c>
+      <c r="B415">
+        <v>0</v>
+      </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B416">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B423">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B448">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B449">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>463</v>
       </c>

--- a/Doritos.xlsx
+++ b/Doritos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caiot\Videos\CI_DADOS_CAIO\c_dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Downloads\C.Dados\c_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D2AA4B-A7CF-4003-94D1-50EBC9528483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E83D523-8BE1-46ED-8CC4-41FD6D55C52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -3661,21 +3661,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B452" sqref="B452"/>
+    <sheetView topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="139.88671875" customWidth="1"/>
+    <col min="1" max="1" width="139.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3979,15 +3979,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>335</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>336</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>337</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>338</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>339</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>340</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>341</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>342</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>343</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>344</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>345</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>346</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>347</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>348</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>349</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>350</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>351</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>352</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>353</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>354</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>355</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>356</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>357</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>358</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>359</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>360</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>361</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>362</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>363</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>364</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>365</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>366</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>367</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>368</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>369</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>370</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>371</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>372</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>373</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>374</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>375</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>376</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>377</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>378</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>379</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>380</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>381</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>382</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>383</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>384</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>385</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>386</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>387</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>388</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>389</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>390</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>391</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>392</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>393</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>394</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>395</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>396</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>397</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>398</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>399</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>400</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>401</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>402</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>403</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>404</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>405</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>406</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>407</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>408</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>409</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>410</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>411</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>412</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>413</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>414</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>415</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>416</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>417</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>418</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>419</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>420</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>421</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>422</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>423</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>424</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>425</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>426</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>427</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>428</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>429</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>430</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>431</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>432</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>433</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>434</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>435</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>436</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>437</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>438</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>439</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>440</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>441</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>442</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>443</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>444</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>445</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>446</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>447</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>448</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>449</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>450</v>
       </c>
@@ -7299,752 +7299,752 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>600</v>
       </c>
@@ -8057,2015 +8057,3220 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A401"/>
+  <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="178.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B324">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B330">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B342">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B351">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B353">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B377">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B390">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B391">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B395">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B396">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1001</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Doritos.xlsx
+++ b/Doritos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Downloads\C.Dados\c_dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caiot\Videos\CI_DADOS_CAIO\c_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E83D523-8BE1-46ED-8CC4-41FD6D55C52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E381A83-B0DE-4840-84B0-0F5CF4104BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -3661,21 +3661,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F601"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A157" sqref="A157"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B599" sqref="B599"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="139.85546875" customWidth="1"/>
+    <col min="1" max="1" width="139.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>335</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>336</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>337</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>338</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>339</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>340</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>341</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>342</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>343</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>344</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>345</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>346</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>347</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>348</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>349</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>350</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>351</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>352</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>353</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>354</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>355</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>356</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>357</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>358</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>359</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>360</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>361</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>362</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>363</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>364</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>365</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>366</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>367</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>368</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>369</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>370</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>371</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>372</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>373</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>374</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>375</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>376</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>377</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>378</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>379</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>380</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>381</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>382</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>383</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>384</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>385</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>386</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>387</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>388</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>389</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>390</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>391</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>392</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>393</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>394</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>395</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>396</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>397</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>398</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>399</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>400</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>401</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>402</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>403</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>404</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>405</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>406</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>407</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>408</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>409</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>410</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>411</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>412</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>413</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>414</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>415</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>416</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>417</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>418</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>419</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>420</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>421</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>422</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>423</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>424</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>425</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>426</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>427</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>428</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>429</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>430</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>431</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>432</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>433</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>434</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>435</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>436</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>437</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>438</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>439</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>440</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>441</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>442</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>443</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>444</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>445</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>446</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>447</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>448</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>449</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>450</v>
       </c>
@@ -7299,754 +7299,1204 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B456">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B457">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B463">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B468">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B469">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B471">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B476">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B477">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B480">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B482">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B486">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B494">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B505">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B507">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B508">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B515">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B522">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B523">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B525">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B530">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B534">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B536">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B544">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B545">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B553">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B556">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B557">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B558">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B560">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B561">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B562">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B575">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B576">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B577">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B580">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B582">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B586">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B594">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B599">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>600</v>
+      </c>
+      <c r="B601">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8059,21 +8509,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="178.28515625" customWidth="1"/>
+    <col min="1" max="1" width="178.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>602</v>
       </c>
@@ -8081,7 +8531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>603</v>
       </c>
@@ -8089,7 +8539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>604</v>
       </c>
@@ -8097,7 +8547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>605</v>
       </c>
@@ -8105,7 +8555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>606</v>
       </c>
@@ -8113,7 +8563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>607</v>
       </c>
@@ -8121,7 +8571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>608</v>
       </c>
@@ -8129,7 +8579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>609</v>
       </c>
@@ -8137,7 +8587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>610</v>
       </c>
@@ -8145,7 +8595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>611</v>
       </c>
@@ -8153,7 +8603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>612</v>
       </c>
@@ -8161,7 +8611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>613</v>
       </c>
@@ -8169,7 +8619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>614</v>
       </c>
@@ -8177,7 +8627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>615</v>
       </c>
@@ -8185,7 +8635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>616</v>
       </c>
@@ -8193,7 +8643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>617</v>
       </c>
@@ -8201,7 +8651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>618</v>
       </c>
@@ -8209,7 +8659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>619</v>
       </c>
@@ -8217,7 +8667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>620</v>
       </c>
@@ -8225,7 +8675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>621</v>
       </c>
@@ -8233,7 +8683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>622</v>
       </c>
@@ -8241,7 +8691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>623</v>
       </c>
@@ -8249,7 +8699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>624</v>
       </c>
@@ -8257,7 +8707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>625</v>
       </c>
@@ -8265,7 +8715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>626</v>
       </c>
@@ -8273,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>627</v>
       </c>
@@ -8281,7 +8731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>628</v>
       </c>
@@ -8289,7 +8739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>629</v>
       </c>
@@ -8297,7 +8747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>630</v>
       </c>
@@ -8305,7 +8755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>631</v>
       </c>
@@ -8313,7 +8763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>632</v>
       </c>
@@ -8321,7 +8771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>633</v>
       </c>
@@ -8329,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>634</v>
       </c>
@@ -8337,7 +8787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>635</v>
       </c>
@@ -8345,7 +8795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>636</v>
       </c>
@@ -8353,7 +8803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>637</v>
       </c>
@@ -8361,7 +8811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>638</v>
       </c>
@@ -8369,7 +8819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>639</v>
       </c>
@@ -8377,7 +8827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>640</v>
       </c>
@@ -8385,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>641</v>
       </c>
@@ -8393,7 +8843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>642</v>
       </c>
@@ -8401,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>643</v>
       </c>
@@ -8409,7 +8859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>644</v>
       </c>
@@ -8417,7 +8867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>645</v>
       </c>
@@ -8425,7 +8875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>646</v>
       </c>
@@ -8433,7 +8883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>647</v>
       </c>
@@ -8441,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>648</v>
       </c>
@@ -8449,7 +8899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>649</v>
       </c>
@@ -8457,7 +8907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>650</v>
       </c>
@@ -8465,7 +8915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>651</v>
       </c>
@@ -8473,7 +8923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>652</v>
       </c>
@@ -8481,7 +8931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>653</v>
       </c>
@@ -8489,7 +8939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>654</v>
       </c>
@@ -8497,7 +8947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>655</v>
       </c>
@@ -8505,7 +8955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>656</v>
       </c>
@@ -8513,7 +8963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>657</v>
       </c>
@@ -8521,7 +8971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>658</v>
       </c>
@@ -8529,7 +8979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>659</v>
       </c>
@@ -8537,7 +8987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>660</v>
       </c>
@@ -8545,7 +8995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>661</v>
       </c>
@@ -8553,7 +9003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>662</v>
       </c>
@@ -8561,7 +9011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>663</v>
       </c>
@@ -8569,7 +9019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>664</v>
       </c>
@@ -8577,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>665</v>
       </c>
@@ -8585,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>666</v>
       </c>
@@ -8593,7 +9043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>667</v>
       </c>
@@ -8601,7 +9051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>668</v>
       </c>
@@ -8609,7 +9059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>669</v>
       </c>
@@ -8617,7 +9067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>670</v>
       </c>
@@ -8625,7 +9075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>671</v>
       </c>
@@ -8633,7 +9083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>672</v>
       </c>
@@ -8641,7 +9091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>673</v>
       </c>
@@ -8649,7 +9099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>674</v>
       </c>
@@ -8657,7 +9107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>675</v>
       </c>
@@ -8665,7 +9115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>676</v>
       </c>
@@ -8673,7 +9123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>677</v>
       </c>
@@ -8681,7 +9131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>678</v>
       </c>
@@ -8689,7 +9139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>679</v>
       </c>
@@ -8697,7 +9147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>680</v>
       </c>
@@ -8705,7 +9155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>681</v>
       </c>
@@ -8713,7 +9163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>682</v>
       </c>
@@ -8721,7 +9171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>683</v>
       </c>
@@ -8729,7 +9179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>684</v>
       </c>
@@ -8737,7 +9187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>685</v>
       </c>
@@ -8745,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>686</v>
       </c>
@@ -8753,7 +9203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>687</v>
       </c>
@@ -8761,7 +9211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>688</v>
       </c>
@@ -8769,7 +9219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>689</v>
       </c>
@@ -8777,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>690</v>
       </c>
@@ -8785,7 +9235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>691</v>
       </c>
@@ -8793,7 +9243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>692</v>
       </c>
@@ -8801,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>693</v>
       </c>
@@ -8809,7 +9259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>694</v>
       </c>
@@ -8817,7 +9267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>695</v>
       </c>
@@ -8825,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>696</v>
       </c>
@@ -8833,7 +9283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>697</v>
       </c>
@@ -8841,7 +9291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>698</v>
       </c>
@@ -8849,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>699</v>
       </c>
@@ -8857,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>700</v>
       </c>
@@ -8865,7 +9315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>701</v>
       </c>
@@ -8873,7 +9323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>702</v>
       </c>
@@ -8881,7 +9331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>703</v>
       </c>
@@ -8889,7 +9339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>704</v>
       </c>
@@ -8897,7 +9347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>705</v>
       </c>
@@ -8905,7 +9355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>706</v>
       </c>
@@ -8913,7 +9363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>707</v>
       </c>
@@ -8921,7 +9371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>708</v>
       </c>
@@ -8929,7 +9379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>709</v>
       </c>
@@ -8937,7 +9387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>710</v>
       </c>
@@ -8945,7 +9395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>711</v>
       </c>
@@ -8953,7 +9403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>712</v>
       </c>
@@ -8961,7 +9411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>713</v>
       </c>
@@ -8969,7 +9419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>714</v>
       </c>
@@ -8977,7 +9427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>715</v>
       </c>
@@ -8985,7 +9435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>716</v>
       </c>
@@ -8993,7 +9443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>717</v>
       </c>
@@ -9001,7 +9451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>718</v>
       </c>
@@ -9009,7 +9459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>719</v>
       </c>
@@ -9017,7 +9467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>720</v>
       </c>
@@ -9025,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>721</v>
       </c>
@@ -9033,7 +9483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>722</v>
       </c>
@@ -9041,7 +9491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>723</v>
       </c>
@@ -9049,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>724</v>
       </c>
@@ -9057,7 +9507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>725</v>
       </c>
@@ -9065,7 +9515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>726</v>
       </c>
@@ -9073,7 +9523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>727</v>
       </c>
@@ -9081,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>728</v>
       </c>
@@ -9089,7 +9539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>729</v>
       </c>
@@ -9097,7 +9547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>730</v>
       </c>
@@ -9105,7 +9555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>731</v>
       </c>
@@ -9113,7 +9563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>732</v>
       </c>
@@ -9121,7 +9571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>733</v>
       </c>
@@ -9129,7 +9579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>734</v>
       </c>
@@ -9137,7 +9587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>735</v>
       </c>
@@ -9145,7 +9595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>736</v>
       </c>
@@ -9153,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>737</v>
       </c>
@@ -9161,7 +9611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>738</v>
       </c>
@@ -9169,7 +9619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>739</v>
       </c>
@@ -9177,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>740</v>
       </c>
@@ -9185,7 +9635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>741</v>
       </c>
@@ -9193,7 +9643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>742</v>
       </c>
@@ -9201,7 +9651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>743</v>
       </c>
@@ -9209,7 +9659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>744</v>
       </c>
@@ -9217,7 +9667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>745</v>
       </c>
@@ -9225,7 +9675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>746</v>
       </c>
@@ -9233,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>747</v>
       </c>
@@ -9241,7 +9691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>748</v>
       </c>
@@ -9249,7 +9699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>749</v>
       </c>
@@ -9257,7 +9707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>750</v>
       </c>
@@ -9265,7 +9715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>751</v>
       </c>
@@ -9273,7 +9723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>752</v>
       </c>
@@ -9281,7 +9731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>753</v>
       </c>
@@ -9289,7 +9739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>754</v>
       </c>
@@ -9297,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>755</v>
       </c>
@@ -9305,7 +9755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>756</v>
       </c>
@@ -9313,7 +9763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>757</v>
       </c>
@@ -9321,7 +9771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>758</v>
       </c>
@@ -9329,7 +9779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>759</v>
       </c>
@@ -9337,7 +9787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>760</v>
       </c>
@@ -9345,7 +9795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>761</v>
       </c>
@@ -9353,7 +9803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>762</v>
       </c>
@@ -9361,7 +9811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>763</v>
       </c>
@@ -9369,7 +9819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>764</v>
       </c>
@@ -9377,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>765</v>
       </c>
@@ -9385,7 +9835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>766</v>
       </c>
@@ -9393,7 +9843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>767</v>
       </c>
@@ -9401,7 +9851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>768</v>
       </c>
@@ -9409,7 +9859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>769</v>
       </c>
@@ -9417,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>770</v>
       </c>
@@ -9425,7 +9875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>771</v>
       </c>
@@ -9433,7 +9883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>772</v>
       </c>
@@ -9441,7 +9891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>773</v>
       </c>
@@ -9449,7 +9899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>774</v>
       </c>
@@ -9457,7 +9907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>775</v>
       </c>
@@ -9465,7 +9915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>776</v>
       </c>
@@ -9473,7 +9923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>777</v>
       </c>
@@ -9481,7 +9931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>778</v>
       </c>
@@ -9489,7 +9939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>779</v>
       </c>
@@ -9497,7 +9947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>780</v>
       </c>
@@ -9505,7 +9955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>781</v>
       </c>
@@ -9513,7 +9963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>782</v>
       </c>
@@ -9521,7 +9971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>783</v>
       </c>
@@ -9529,7 +9979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>784</v>
       </c>
@@ -9537,7 +9987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>785</v>
       </c>
@@ -9545,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>786</v>
       </c>
@@ -9553,7 +10003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>787</v>
       </c>
@@ -9561,7 +10011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>788</v>
       </c>
@@ -9569,7 +10019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>789</v>
       </c>
@@ -9577,7 +10027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>790</v>
       </c>
@@ -9585,7 +10035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>791</v>
       </c>
@@ -9593,7 +10043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>792</v>
       </c>
@@ -9601,7 +10051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>793</v>
       </c>
@@ -9609,7 +10059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>794</v>
       </c>
@@ -9617,7 +10067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>795</v>
       </c>
@@ -9625,7 +10075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>796</v>
       </c>
@@ -9633,7 +10083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>797</v>
       </c>
@@ -9641,7 +10091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>798</v>
       </c>
@@ -9649,7 +10099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>799</v>
       </c>
@@ -9657,7 +10107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>800</v>
       </c>
@@ -9665,7 +10115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>801</v>
       </c>
@@ -9673,7 +10123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>802</v>
       </c>
@@ -9681,7 +10131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>803</v>
       </c>
@@ -9689,7 +10139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>804</v>
       </c>
@@ -9697,7 +10147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>805</v>
       </c>
@@ -9705,7 +10155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>806</v>
       </c>
@@ -9713,7 +10163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>807</v>
       </c>
@@ -9721,7 +10171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>808</v>
       </c>
@@ -9729,7 +10179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>809</v>
       </c>
@@ -9737,7 +10187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>810</v>
       </c>
@@ -9745,7 +10195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>811</v>
       </c>
@@ -9753,7 +10203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>812</v>
       </c>
@@ -9761,7 +10211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>813</v>
       </c>
@@ -9769,7 +10219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>814</v>
       </c>
@@ -9777,7 +10227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>815</v>
       </c>
@@ -9785,7 +10235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>816</v>
       </c>
@@ -9793,7 +10243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>817</v>
       </c>
@@ -9801,7 +10251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>818</v>
       </c>
@@ -9809,7 +10259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>819</v>
       </c>
@@ -9817,7 +10267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>820</v>
       </c>
@@ -9825,7 +10275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>821</v>
       </c>
@@ -9833,7 +10283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>822</v>
       </c>
@@ -9841,7 +10291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>823</v>
       </c>
@@ -9849,7 +10299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>824</v>
       </c>
@@ -9857,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>825</v>
       </c>
@@ -9865,7 +10315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>826</v>
       </c>
@@ -9873,7 +10323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>827</v>
       </c>
@@ -9881,7 +10331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>828</v>
       </c>
@@ -9889,7 +10339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>829</v>
       </c>
@@ -9897,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>830</v>
       </c>
@@ -9905,7 +10355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>831</v>
       </c>
@@ -9913,7 +10363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>832</v>
       </c>
@@ -9921,7 +10371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>833</v>
       </c>
@@ -9929,7 +10379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>834</v>
       </c>
@@ -9937,7 +10387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>835</v>
       </c>
@@ -9945,7 +10395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>836</v>
       </c>
@@ -9953,7 +10403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>837</v>
       </c>
@@ -9961,7 +10411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>838</v>
       </c>
@@ -9969,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>839</v>
       </c>
@@ -9977,7 +10427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>840</v>
       </c>
@@ -9985,7 +10435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>841</v>
       </c>
@@ -9993,7 +10443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>842</v>
       </c>
@@ -10001,7 +10451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>843</v>
       </c>
@@ -10009,7 +10459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>844</v>
       </c>
@@ -10017,7 +10467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>845</v>
       </c>
@@ -10025,7 +10475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>846</v>
       </c>
@@ -10033,7 +10483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>847</v>
       </c>
@@ -10041,7 +10491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>848</v>
       </c>
@@ -10049,7 +10499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>849</v>
       </c>
@@ -10057,7 +10507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>850</v>
       </c>
@@ -10065,7 +10515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>851</v>
       </c>
@@ -10073,7 +10523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>852</v>
       </c>
@@ -10081,7 +10531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>853</v>
       </c>
@@ -10089,7 +10539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>854</v>
       </c>
@@ -10097,7 +10547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>855</v>
       </c>
@@ -10105,7 +10555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>856</v>
       </c>
@@ -10113,7 +10563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>857</v>
       </c>
@@ -10121,7 +10571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>858</v>
       </c>
@@ -10129,7 +10579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>859</v>
       </c>
@@ -10137,7 +10587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>860</v>
       </c>
@@ -10145,7 +10595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>861</v>
       </c>
@@ -10153,7 +10603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>862</v>
       </c>
@@ -10161,7 +10611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>863</v>
       </c>
@@ -10169,7 +10619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>864</v>
       </c>
@@ -10177,7 +10627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>865</v>
       </c>
@@ -10185,7 +10635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>866</v>
       </c>
@@ -10193,7 +10643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>867</v>
       </c>
@@ -10201,7 +10651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>868</v>
       </c>
@@ -10209,7 +10659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>869</v>
       </c>
@@ -10217,7 +10667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>870</v>
       </c>
@@ -10225,7 +10675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>871</v>
       </c>
@@ -10233,7 +10683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>872</v>
       </c>
@@ -10241,7 +10691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>873</v>
       </c>
@@ -10249,7 +10699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>874</v>
       </c>
@@ -10257,7 +10707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>875</v>
       </c>
@@ -10265,7 +10715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>876</v>
       </c>
@@ -10273,7 +10723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>877</v>
       </c>
@@ -10281,7 +10731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>878</v>
       </c>
@@ -10289,7 +10739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>879</v>
       </c>
@@ -10297,7 +10747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>880</v>
       </c>
@@ -10305,7 +10755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>881</v>
       </c>
@@ -10313,7 +10763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>882</v>
       </c>
@@ -10321,7 +10771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>883</v>
       </c>
@@ -10329,7 +10779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>884</v>
       </c>
@@ -10337,7 +10787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>885</v>
       </c>
@@ -10345,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>886</v>
       </c>
@@ -10353,7 +10803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>887</v>
       </c>
@@ -10361,7 +10811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>888</v>
       </c>
@@ -10369,7 +10819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>889</v>
       </c>
@@ -10377,7 +10827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>890</v>
       </c>
@@ -10385,7 +10835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>891</v>
       </c>
@@ -10393,7 +10843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>892</v>
       </c>
@@ -10401,7 +10851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>893</v>
       </c>
@@ -10409,7 +10859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>894</v>
       </c>
@@ -10417,7 +10867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>895</v>
       </c>
@@ -10425,7 +10875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>896</v>
       </c>
@@ -10433,7 +10883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>897</v>
       </c>
@@ -10441,7 +10891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>898</v>
       </c>
@@ -10449,7 +10899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>899</v>
       </c>
@@ -10457,7 +10907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>900</v>
       </c>
@@ -10465,7 +10915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>901</v>
       </c>
@@ -10473,7 +10923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>902</v>
       </c>
@@ -10481,7 +10931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>903</v>
       </c>
@@ -10489,7 +10939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>904</v>
       </c>
@@ -10497,7 +10947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>905</v>
       </c>
@@ -10505,7 +10955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>906</v>
       </c>
@@ -10513,7 +10963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>907</v>
       </c>
@@ -10521,7 +10971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>908</v>
       </c>
@@ -10529,7 +10979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>909</v>
       </c>
@@ -10537,7 +10987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>910</v>
       </c>
@@ -10545,7 +10995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>911</v>
       </c>
@@ -10553,7 +11003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>912</v>
       </c>
@@ -10561,7 +11011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>913</v>
       </c>
@@ -10569,7 +11019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>914</v>
       </c>
@@ -10577,7 +11027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>915</v>
       </c>
@@ -10585,7 +11035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>916</v>
       </c>
@@ -10593,7 +11043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>917</v>
       </c>
@@ -10601,7 +11051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>918</v>
       </c>
@@ -10609,7 +11059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>919</v>
       </c>
@@ -10617,7 +11067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>920</v>
       </c>
@@ -10625,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>921</v>
       </c>
@@ -10633,7 +11083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>922</v>
       </c>
@@ -10641,7 +11091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>923</v>
       </c>
@@ -10649,7 +11099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>924</v>
       </c>
@@ -10657,7 +11107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>925</v>
       </c>
@@ -10665,7 +11115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>926</v>
       </c>
@@ -10673,7 +11123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>927</v>
       </c>
@@ -10681,7 +11131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>928</v>
       </c>
@@ -10689,7 +11139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>929</v>
       </c>
@@ -10697,7 +11147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>930</v>
       </c>
@@ -10705,7 +11155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>931</v>
       </c>
@@ -10713,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>932</v>
       </c>
@@ -10721,7 +11171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>933</v>
       </c>
@@ -10729,7 +11179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>934</v>
       </c>
@@ -10737,7 +11187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>935</v>
       </c>
@@ -10745,7 +11195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>936</v>
       </c>
@@ -10753,7 +11203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>937</v>
       </c>
@@ -10761,7 +11211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>938</v>
       </c>
@@ -10769,7 +11219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>939</v>
       </c>
@@ -10777,7 +11227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>940</v>
       </c>
@@ -10785,7 +11235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>941</v>
       </c>
@@ -10793,7 +11243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>942</v>
       </c>
@@ -10801,7 +11251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>943</v>
       </c>
@@ -10809,7 +11259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>944</v>
       </c>
@@ -10817,7 +11267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>945</v>
       </c>
@@ -10825,7 +11275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>946</v>
       </c>
@@ -10833,7 +11283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>947</v>
       </c>
@@ -10841,7 +11291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>948</v>
       </c>
@@ -10849,7 +11299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>949</v>
       </c>
@@ -10857,7 +11307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>950</v>
       </c>
@@ -10865,7 +11315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>951</v>
       </c>
@@ -10873,7 +11323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>952</v>
       </c>
@@ -10881,7 +11331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>953</v>
       </c>
@@ -10889,7 +11339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>954</v>
       </c>
@@ -10897,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>955</v>
       </c>
@@ -10905,7 +11355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>956</v>
       </c>
@@ -10913,7 +11363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>957</v>
       </c>
@@ -10921,7 +11371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>958</v>
       </c>
@@ -10929,7 +11379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>959</v>
       </c>
@@ -10937,7 +11387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>960</v>
       </c>
@@ -10945,7 +11395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>961</v>
       </c>
@@ -10953,7 +11403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>962</v>
       </c>
@@ -10961,7 +11411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>963</v>
       </c>
@@ -10969,7 +11419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>964</v>
       </c>
@@ -10977,7 +11427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>965</v>
       </c>
@@ -10985,7 +11435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>966</v>
       </c>
@@ -10993,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>967</v>
       </c>
@@ -11001,7 +11451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>968</v>
       </c>
@@ -11009,7 +11459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>969</v>
       </c>
@@ -11017,7 +11467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>970</v>
       </c>
@@ -11025,7 +11475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>971</v>
       </c>
@@ -11033,7 +11483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>972</v>
       </c>
@@ -11041,7 +11491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>973</v>
       </c>
@@ -11049,7 +11499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>974</v>
       </c>
@@ -11057,7 +11507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>975</v>
       </c>
@@ -11065,7 +11515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>976</v>
       </c>
@@ -11073,7 +11523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>977</v>
       </c>
@@ -11081,7 +11531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>978</v>
       </c>
@@ -11089,7 +11539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>979</v>
       </c>
@@ -11097,7 +11547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>980</v>
       </c>
@@ -11105,7 +11555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>981</v>
       </c>
@@ -11113,7 +11563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>982</v>
       </c>
@@ -11121,7 +11571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>983</v>
       </c>
@@ -11129,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>984</v>
       </c>
@@ -11137,7 +11587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>985</v>
       </c>
@@ -11145,7 +11595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>986</v>
       </c>
@@ -11153,7 +11603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>987</v>
       </c>
@@ -11161,7 +11611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>988</v>
       </c>
@@ -11169,7 +11619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>989</v>
       </c>
@@ -11177,7 +11627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>990</v>
       </c>
@@ -11185,7 +11635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>991</v>
       </c>
@@ -11193,7 +11643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>992</v>
       </c>
@@ -11201,7 +11651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>993</v>
       </c>
@@ -11209,7 +11659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>994</v>
       </c>
@@ -11217,7 +11667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>995</v>
       </c>
@@ -11225,7 +11675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>996</v>
       </c>
@@ -11233,7 +11683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>997</v>
       </c>
@@ -11241,7 +11691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>998</v>
       </c>
@@ -11249,7 +11699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>999</v>
       </c>
@@ -11257,7 +11707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>1000</v>
       </c>
@@ -11265,7 +11715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>1001</v>
       </c>

--- a/Doritos.xlsx
+++ b/Doritos.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caiot\Videos\CI_DADOS_CAIO\c_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E381A83-B0DE-4840-84B0-0F5CF4104BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8863077-12B0-4792-92A4-885F4DCF1089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="1007">
   <si>
     <t>Treinamento</t>
   </si>
@@ -3249,6 +3250,9 @@
   </si>
   <si>
     <t>extremamente relevante</t>
+  </si>
+  <si>
+    <t>categoria</t>
   </si>
 </sst>
 </file>
@@ -3661,8 +3665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F601"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B599" sqref="B599"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3673,6 +3677,9 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -8509,8 +8516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8522,6 +8529,9 @@
       <c r="A1" s="1" t="s">
         <v>601</v>
       </c>
+      <c r="B1" t="s">
+        <v>1006</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -8676,7 +8686,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>621</v>
       </c>
       <c r="B21">
@@ -11725,5 +11735,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Doritos.xlsx
+++ b/Doritos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caiot\Videos\CI_DADOS_CAIO\c_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8863077-12B0-4792-92A4-885F4DCF1089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F15147-BD0C-4ACB-BFCD-33CF7E84B67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -3319,12 +3318,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3665,7 +3667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F601"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -8516,8 +8518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8837,8 +8839,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>640</v>
       </c>
       <c r="B40">
@@ -8909,8 +8911,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>649</v>
       </c>
       <c r="B49">
